--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/32.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/32.xlsx
@@ -479,13 +479,13 @@
         <v>0.1886567260372576</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.791447712500519</v>
+        <v>-1.787682658762368</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04326753875603418</v>
+        <v>0.04375548468363739</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08014343044954625</v>
+        <v>-0.08117913503136209</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.2036319441025762</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.836303322409786</v>
+        <v>-1.834575049414598</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02170032875597216</v>
+        <v>0.02283047448506605</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06244201141139871</v>
+        <v>-0.06234284820675676</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2353810314701119</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.937309703442772</v>
+        <v>-1.935722305158941</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01875511069969812</v>
+        <v>-0.01960350700607919</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06826273412196865</v>
+        <v>-0.06963213075750026</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.2787289209358256</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.979284071350498</v>
+        <v>-1.975791322920331</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03797545818990082</v>
+        <v>-0.03843349775419932</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0635595649875222</v>
+        <v>-0.06450397646030261</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.3258702448054898</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.934821966221556</v>
+        <v>-1.929036658941216</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02062504541580334</v>
+        <v>-0.01997812355694875</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08113506249596568</v>
+        <v>-0.08294046242809756</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.3684181098107244</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.806336359368903</v>
+        <v>-1.799463404875743</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02054185068269485</v>
+        <v>0.02123599311518845</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06932362300972532</v>
+        <v>-0.06979425472699423</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.3998267536620157</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.534514275254123</v>
+        <v>-1.526115309222863</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05648457731759605</v>
+        <v>0.05648615133671736</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06464878621946227</v>
+        <v>-0.06482507636104795</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.4169461305778689</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.127317889602317</v>
+        <v>-1.116664141179793</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04827606760001297</v>
+        <v>0.04707036895309664</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04930839586326577</v>
+        <v>-0.04922182481159423</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.4238321738055185</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6211133401920157</v>
+        <v>-0.6100023392147542</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04174703628485772</v>
+        <v>0.04008015003540029</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02142464712942409</v>
+        <v>-0.02203379252936745</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.4345001160749944</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1141516875843689</v>
+        <v>-0.1033303061254267</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05377546212951712</v>
+        <v>-0.05585159335051273</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01707743459671204</v>
+        <v>0.01639903235543144</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4662317025674225</v>
       </c>
       <c r="E12" t="n">
-        <v>0.472105900316164</v>
+        <v>0.4837127173166352</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2316065684349475</v>
+        <v>-0.2320315535976987</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07724588952755213</v>
+        <v>0.07618657465891676</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.5329462960151468</v>
       </c>
       <c r="E13" t="n">
-        <v>1.055415350402501</v>
+        <v>1.068753588436403</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5111271800720089</v>
+        <v>-0.509369000713516</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1679534634498682</v>
+        <v>0.166628139349733</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.6426543332831098</v>
       </c>
       <c r="E14" t="n">
-        <v>1.646733409778015</v>
+        <v>1.661585854206608</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8200992634877273</v>
+        <v>-0.8171196452911051</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2700223073897325</v>
+        <v>0.266978154409137</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7885667288582209</v>
       </c>
       <c r="E15" t="n">
-        <v>2.334252369809185</v>
+        <v>2.352089154491765</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.15700703826829</v>
+        <v>-1.15360636995672</v>
       </c>
       <c r="G15" t="n">
-        <v>0.392726542009849</v>
+        <v>0.3900806158669425</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.9528907187333704</v>
       </c>
       <c r="E16" t="n">
-        <v>2.880219790261784</v>
+        <v>2.900271219848034</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.506026890187262</v>
+        <v>-1.502495578288624</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5217599075167154</v>
+        <v>0.520354308441394</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.114315537547067</v>
       </c>
       <c r="E17" t="n">
-        <v>3.378662851384952</v>
+        <v>3.398775667716932</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.847278170733055</v>
+        <v>-1.84373820172925</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6400962390752225</v>
+        <v>0.6370914365726594</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.263029931826424</v>
       </c>
       <c r="E18" t="n">
-        <v>3.788032170433714</v>
+        <v>3.80611922415658</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.154861969283786</v>
+        <v>-2.149065643869596</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7959257061031119</v>
+        <v>0.7938716111498144</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.394134547205939</v>
       </c>
       <c r="E19" t="n">
-        <v>4.133724545930256</v>
+        <v>4.150390260386588</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.507225824825961</v>
+        <v>-2.50036310145709</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9393172740344832</v>
+        <v>0.9370711487483872</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.505957437952492</v>
       </c>
       <c r="E20" t="n">
-        <v>4.446641121263954</v>
+        <v>4.464197730542942</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.82712553599131</v>
+        <v>-2.818506207283067</v>
       </c>
       <c r="G20" t="n">
-        <v>1.058708198404262</v>
+        <v>1.054899072130714</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.595536751973225</v>
       </c>
       <c r="E21" t="n">
-        <v>4.65974284803949</v>
+        <v>4.674171881324454</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.098683971903271</v>
+        <v>-3.089004541316833</v>
       </c>
       <c r="G21" t="n">
-        <v>1.16593667702375</v>
+        <v>1.160925000141528</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.663003247528227</v>
       </c>
       <c r="E22" t="n">
-        <v>4.82738375455362</v>
+        <v>4.841688440328</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.313018942660347</v>
+        <v>-3.300935197866122</v>
       </c>
       <c r="G22" t="n">
-        <v>1.249358116433565</v>
+        <v>1.242939266456901</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.711673568669459</v>
       </c>
       <c r="E23" t="n">
-        <v>4.939035226903963</v>
+        <v>4.952639474169365</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.452873689626156</v>
+        <v>-3.440775778659839</v>
       </c>
       <c r="G23" t="n">
-        <v>1.325602028650249</v>
+        <v>1.318503202413183</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.74637755250745</v>
       </c>
       <c r="E24" t="n">
-        <v>5.008872881296953</v>
+        <v>5.022541663346328</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.567810139882653</v>
+        <v>-3.555158174185638</v>
       </c>
       <c r="G24" t="n">
-        <v>1.386489810319523</v>
+        <v>1.378995905283011</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.771528841822059</v>
       </c>
       <c r="E25" t="n">
-        <v>5.000562060336486</v>
+        <v>5.01271821001029</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.669549226816605</v>
+        <v>-3.657001933391157</v>
       </c>
       <c r="G25" t="n">
-        <v>1.425602611464724</v>
+        <v>1.418041023605996</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.788001207427108</v>
       </c>
       <c r="E26" t="n">
-        <v>4.986987719434389</v>
+        <v>4.997646976923837</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.688722353733169</v>
+        <v>-3.676812538051847</v>
       </c>
       <c r="G26" t="n">
-        <v>1.44964260550435</v>
+        <v>1.441495482532497</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.796754317736275</v>
       </c>
       <c r="E27" t="n">
-        <v>4.942414645957395</v>
+        <v>4.951295261839774</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.646105786023953</v>
+        <v>-3.636303581946053</v>
       </c>
       <c r="G27" t="n">
-        <v>1.445924772339837</v>
+        <v>1.438119211517307</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.795862658913425</v>
       </c>
       <c r="E28" t="n">
-        <v>4.791367049020018</v>
+        <v>4.80002258016805</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.578293107230516</v>
+        <v>-3.569349530583285</v>
       </c>
       <c r="G28" t="n">
-        <v>1.397690530386699</v>
+        <v>1.389312026604016</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.784314388464451</v>
       </c>
       <c r="E29" t="n">
-        <v>4.661937030694583</v>
+        <v>4.669796108167238</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.489653007424028</v>
+        <v>-3.481092704432835</v>
       </c>
       <c r="G29" t="n">
-        <v>1.354061868382487</v>
+        <v>1.346201216890711</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.761042731945308</v>
       </c>
       <c r="E30" t="n">
-        <v>4.507454924034527</v>
+        <v>4.513313423204008</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.35875442925842</v>
+        <v>-3.348162067581627</v>
       </c>
       <c r="G30" t="n">
-        <v>1.30179971149794</v>
+        <v>1.294157848664025</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.726137043670275</v>
       </c>
       <c r="E31" t="n">
-        <v>4.350740858260467</v>
+        <v>4.355576245001102</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.236485410925344</v>
+        <v>-3.225387002101053</v>
       </c>
       <c r="G31" t="n">
-        <v>1.23938040922364</v>
+        <v>1.233443209098094</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.68155449085682</v>
       </c>
       <c r="E32" t="n">
-        <v>4.214758198333058</v>
+        <v>4.220490775972835</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.096522843649726</v>
+        <v>-3.084769642870973</v>
       </c>
       <c r="G32" t="n">
-        <v>1.16885333445552</v>
+        <v>1.162380967828732</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.627492442021653</v>
       </c>
       <c r="E33" t="n">
-        <v>4.009350277022439</v>
+        <v>4.0145791685434</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.970487197559376</v>
+        <v>-2.957282751150785</v>
       </c>
       <c r="G33" t="n">
-        <v>1.099936481248491</v>
+        <v>1.093966226721397</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.566429454519698</v>
       </c>
       <c r="E34" t="n">
-        <v>3.754431584251308</v>
+        <v>3.760120089355688</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.893210728799119</v>
+        <v>-2.880582373388924</v>
       </c>
       <c r="G34" t="n">
-        <v>1.041373525821377</v>
+        <v>1.03560474574181</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.497533423769839</v>
       </c>
       <c r="E35" t="n">
-        <v>3.513343797499045</v>
+        <v>3.518961471742967</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.798487045088804</v>
+        <v>-2.784436563402514</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9433719472909537</v>
+        <v>0.9364966317691124</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.423681051397688</v>
       </c>
       <c r="E36" t="n">
-        <v>3.251085453565289</v>
+        <v>3.255278640504434</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.737559912941498</v>
+        <v>-2.725589497524006</v>
       </c>
       <c r="G36" t="n">
-        <v>0.871939811528086</v>
+        <v>0.8653289312186231</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.345383306186831</v>
       </c>
       <c r="E37" t="n">
-        <v>3.005942993556555</v>
+        <v>3.01124901201446</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.639857398044121</v>
+        <v>-2.628149056810326</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8217931363425673</v>
+        <v>0.8165610967833639</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.266080177004746</v>
       </c>
       <c r="E38" t="n">
-        <v>2.714719549752624</v>
+        <v>2.718108412920784</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.555282202618393</v>
+        <v>-2.545276163064284</v>
       </c>
       <c r="G38" t="n">
-        <v>0.753828564703925</v>
+        <v>0.7480471924713875</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.187433011917729</v>
       </c>
       <c r="E39" t="n">
-        <v>2.458033233508271</v>
+        <v>2.460794063047033</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.437703761266792</v>
+        <v>-2.426092222208957</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6843513606897126</v>
+        <v>0.6785888766866308</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.110823823322322</v>
       </c>
       <c r="E40" t="n">
-        <v>2.221840646223254</v>
+        <v>2.224226859211146</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.339648666086244</v>
+        <v>-2.327330392442945</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6346186525330961</v>
+        <v>0.6301216799035401</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.037088272378903</v>
       </c>
       <c r="E41" t="n">
-        <v>2.021524676770043</v>
+        <v>2.024181621046799</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.246421087550726</v>
+        <v>-2.234914220764457</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5703089532941139</v>
+        <v>0.565980400710537</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9654053244317604</v>
       </c>
       <c r="E42" t="n">
-        <v>1.76321554681163</v>
+        <v>1.763810526039482</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.149509517261803</v>
+        <v>-2.138346573653539</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5014377466416022</v>
+        <v>0.4975105689339571</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8959522305977338</v>
       </c>
       <c r="E43" t="n">
-        <v>1.546366080508277</v>
+        <v>1.547006706290646</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.067468492621368</v>
+        <v>-2.056156017196581</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4485554262232631</v>
+        <v>0.4448281489440231</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8282263723652578</v>
       </c>
       <c r="E44" t="n">
-        <v>1.311705013828285</v>
+        <v>1.310685049437682</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.978917324895235</v>
+        <v>-1.967622163680781</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4054666527776568</v>
+        <v>0.4033291348109304</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.761786159228222</v>
       </c>
       <c r="E45" t="n">
-        <v>1.10190872720748</v>
+        <v>1.101176808316076</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.901751824483029</v>
+        <v>-1.891040624362578</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3474609001194838</v>
+        <v>0.3457168869330827</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6966084535774564</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9001367900670665</v>
+        <v>0.8986650821886504</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.835191277900587</v>
+        <v>-1.824613869405446</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2775807472102185</v>
+        <v>0.2755974831173796</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6335128730263476</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7378255122976609</v>
+        <v>0.7357777134208486</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.790555243658742</v>
+        <v>-1.781072565462466</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2414837667014298</v>
+        <v>0.2402245514043893</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5724815488932781</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5784104297114485</v>
+        <v>0.5767451174811123</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.722274294176718</v>
+        <v>-1.712202932829076</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1993771811875151</v>
+        <v>0.1989348818144296</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5147714436627306</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4490292059787746</v>
+        <v>0.4467736365779507</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.674698779225844</v>
+        <v>-1.664839910459577</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1418766886672797</v>
+        <v>0.1401924882074879</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.460372507847309</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3550854487430644</v>
+        <v>0.354890270372023</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.608613586418035</v>
+        <v>-1.597697763811814</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1118664401005608</v>
+        <v>0.1112683128344665</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4103838882228201</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2225908151884576</v>
+        <v>0.2218541742396889</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.560929464147791</v>
+        <v>-1.551160314471438</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07427099338829384</v>
+        <v>0.07349500196149258</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3645854067956684</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1160533309632206</v>
+        <v>0.1154032610661234</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.513494823908274</v>
+        <v>-1.502649045152951</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0453515400726363</v>
+        <v>0.04505719849695306</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3228817805020843</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02049777814729843</v>
+        <v>0.01857747481931159</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.500763370245633</v>
+        <v>-1.49168442795397</v>
       </c>
       <c r="G53" t="n">
-        <v>0.006274941367225418</v>
+        <v>0.006060874766728524</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.285930525107475</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.0731658036848203</v>
+        <v>-0.07563229164789848</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.482271006599032</v>
+        <v>-1.472968553592145</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01530800882404961</v>
+        <v>-0.01575345623537771</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2531232987146652</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.144874966813037</v>
+        <v>-0.1472391435332307</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.467936414461346</v>
+        <v>-1.458238882655013</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04518446576545797</v>
+        <v>-0.04566454159745468</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2244647968438321</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2186020224547612</v>
+        <v>-0.2223418918869717</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.474347394342404</v>
+        <v>-1.464873373251295</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07438566850382833</v>
+        <v>-0.07436048419788752</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1995890122196816</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2715063791407987</v>
+        <v>-0.2745521061405155</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.469456129922962</v>
+        <v>-1.459605131252302</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1143578840892593</v>
+        <v>-0.1161648580405125</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1785756521375247</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3593523863005901</v>
+        <v>-0.363372431136392</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.468806060025865</v>
+        <v>-1.458995985852358</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1326369681449242</v>
+        <v>-0.1339150716714203</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.161326489737213</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4352862167503778</v>
+        <v>-0.4397926334946617</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.492637496531918</v>
+        <v>-1.483916643590352</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1555121880347871</v>
+        <v>-0.1565966872093633</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1477317099422346</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4971766485999209</v>
+        <v>-0.499904423737135</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.508587819297619</v>
+        <v>-1.500221120658345</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1914753769182652</v>
+        <v>-0.1935121576612283</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1350344767790666</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5712531364865738</v>
+        <v>-0.5745522805648201</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.539551136442285</v>
+        <v>-1.531742427581512</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.212523160608298</v>
+        <v>-0.2142608777182139</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1222253533483535</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6273008093578487</v>
+        <v>-0.6309116092221125</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.563750893422722</v>
+        <v>-1.554718384695138</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2232815813023882</v>
+        <v>-0.2244982980831536</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1075832814743905</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6811842059373352</v>
+        <v>-0.6852089728305011</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.610444170656107</v>
+        <v>-1.601904329913491</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2581350867053493</v>
+        <v>-0.2597327161134695</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.09124026522418392</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7393237502208186</v>
+        <v>-0.743952940456564</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.654267224021801</v>
+        <v>-1.646336528679127</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2766849020498779</v>
+        <v>-0.2775301503180164</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.0729602661026246</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8197813116252246</v>
+        <v>-0.8256681431388893</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.698747430370637</v>
+        <v>-1.690775810530809</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3081007496919184</v>
+        <v>-0.3102272495247956</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.05380315200879071</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9034239007215825</v>
+        <v>-0.9117543969210664</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.737757920272953</v>
+        <v>-1.72977921734708</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3252607061523384</v>
+        <v>-0.3265797341759884</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.03484656150493191</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9555396738278483</v>
+        <v>-0.9636930928761859</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.765093123343021</v>
+        <v>-1.756350234133757</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3499853985097297</v>
+        <v>-0.351605064185548</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.01699497240564832</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.007689288345222</v>
+        <v>-1.018833343724031</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.796709658423028</v>
+        <v>-1.787485119362645</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3771592646198647</v>
+        <v>-0.3794510364604785</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.0007458246809190331</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.034820655939082</v>
+        <v>-1.047158604821397</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.826825366270874</v>
+        <v>-1.815448356062112</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3947237439944591</v>
+        <v>-0.3967369144506027</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.01193949398479194</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.032214867283769</v>
+        <v>-1.044513465688052</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.861500220503567</v>
+        <v>-1.850913367893699</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4226200848812712</v>
+        <v>-0.4258531201564228</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.02229778932412862</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.02969879771837</v>
+        <v>-1.039971633513538</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.885962051667701</v>
+        <v>-1.875028914851147</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4325238131924951</v>
+        <v>-0.4358717518635017</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.03141536464032438</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.038675428767147</v>
+        <v>-1.050741072341478</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.930885344399183</v>
+        <v>-1.920371683678455</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4369704172101695</v>
+        <v>-0.4401609539690461</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.03991111144893681</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.004633330221217</v>
+        <v>-1.01745292895465</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.945652004785666</v>
+        <v>-1.933417154155796</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4490667541573654</v>
+        <v>-0.4521722938836916</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.04838945592080257</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9481268307760827</v>
+        <v>-0.9600279893522372</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.987195878463716</v>
+        <v>-1.975844052560895</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4526696839260226</v>
+        <v>-0.4566456562264282</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.05765837959270084</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8906365693801358</v>
+        <v>-0.9029068354402353</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.010285951963636</v>
+        <v>-1.998328915708675</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4586745668737848</v>
+        <v>-0.4624490647266638</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.06760513816407487</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.798645382864399</v>
+        <v>-0.8103309008209353</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.048791968737576</v>
+        <v>-2.038598620908032</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4485237175605166</v>
+        <v>-0.4517693449886386</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.07807980953407892</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.7091545257228484</v>
+        <v>-0.7221937001237033</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.047801123700717</v>
+        <v>-2.038849676957879</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4315888458344425</v>
+        <v>-0.4341419048491922</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.08906042697889156</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5960895842015774</v>
+        <v>-0.6087352538221071</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.057881142153526</v>
+        <v>-2.050335294486011</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4235330159716256</v>
+        <v>-0.4260734828334049</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.0995414160022388</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.4379746414095594</v>
+        <v>-0.4504455949076248</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.044209212065908</v>
+        <v>-2.037477919293666</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3974735553993714</v>
+        <v>-0.3997763453738343</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1095438031271713</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.3012600625907456</v>
+        <v>-0.3145589501466151</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.011196522025308</v>
+        <v>-2.004485691501643</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3789977189535439</v>
+        <v>-0.3815602220830214</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1195220759765347</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.09769531767117022</v>
+        <v>-0.1102308059532089</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.973616028494694</v>
+        <v>-1.965952129393081</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3546854196059335</v>
+        <v>-0.3578004034469875</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.128885434510707</v>
       </c>
       <c r="E82" t="n">
-        <v>0.07770707713009323</v>
+        <v>0.06606248367071074</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.929445903912754</v>
+        <v>-1.921549836990749</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3406184107188693</v>
+        <v>-0.3452900994708897</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1362268476426417</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2800110327335067</v>
+        <v>0.2673260126349445</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.874810126193286</v>
+        <v>-1.867753798472495</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2976366705735114</v>
+        <v>-0.3013057091452633</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1410292393735336</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5009482266948778</v>
+        <v>0.4908241357066718</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.79805544477174</v>
+        <v>-1.792139493904331</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2711443547428995</v>
+        <v>-0.2758254876096478</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1437016609017043</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6886751912159256</v>
+        <v>0.6797646689702425</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.683063903845997</v>
+        <v>-1.677358084531282</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2496715858901155</v>
+        <v>-0.2553585169753749</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1438312004948918</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8991876565369222</v>
+        <v>0.8893138345890029</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.598204597968873</v>
+        <v>-1.593964190456089</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2156145341625325</v>
+        <v>-0.2212400785020612</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1430298716246451</v>
       </c>
       <c r="E87" t="n">
-        <v>1.116082769394793</v>
+        <v>1.107686951401775</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.485196321135969</v>
+        <v>-1.482932881639539</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1728122321970029</v>
+        <v>-0.1772556881764348</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1420116824650744</v>
       </c>
       <c r="E88" t="n">
-        <v>1.29237291098047</v>
+        <v>1.28571638411649</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.325394816855477</v>
+        <v>-1.321976834333573</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1488493650943213</v>
+        <v>-0.1540184438886727</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1429522299360767</v>
       </c>
       <c r="E89" t="n">
-        <v>1.429035547168281</v>
+        <v>1.423280933260806</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.142980166868819</v>
+        <v>-1.139327655497841</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1210474653547872</v>
+        <v>-0.1261771936711062</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1471739561645537</v>
       </c>
       <c r="E90" t="n">
-        <v>1.546144143812173</v>
+        <v>1.540869605736695</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9591662138833251</v>
+        <v>-0.9559394746846587</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.09323297346228276</v>
+        <v>-0.09760087652389217</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1555675881044675</v>
       </c>
       <c r="E91" t="n">
-        <v>1.616902599391125</v>
+        <v>1.610235054393295</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7672279612032373</v>
+        <v>-0.7647961016608277</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09745291872648991</v>
+        <v>-0.1020537766180518</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1681058404550421</v>
       </c>
       <c r="E92" t="n">
-        <v>1.68805298573128</v>
+        <v>1.683888131136318</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5703811298933733</v>
+        <v>-0.5698066129140985</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.08997475388119033</v>
+        <v>-0.0942529378528856</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1843999342549274</v>
       </c>
       <c r="E93" t="n">
-        <v>1.702433224423483</v>
+        <v>1.699711745362754</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4003319741236535</v>
+        <v>-0.4003540103913517</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.09131424415341723</v>
+        <v>-0.09475032789521663</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2029129279870978</v>
       </c>
       <c r="E94" t="n">
-        <v>1.690720948141884</v>
+        <v>1.688410288071815</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2165715377882834</v>
+        <v>-0.2169068038611204</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1054127334229075</v>
+        <v>-0.1075156229689652</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2229876396968325</v>
       </c>
       <c r="E95" t="n">
-        <v>1.659922115995394</v>
+        <v>1.658038015107197</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.07240870048747466</v>
+        <v>-0.07190658838777975</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1123919342067547</v>
+        <v>-0.1148773103992885</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2428638184603934</v>
       </c>
       <c r="E96" t="n">
-        <v>1.606770638307312</v>
+        <v>1.606939058353291</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02695440458287385</v>
+        <v>0.02536464527036016</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1203360087119593</v>
+        <v>-0.1215936499898786</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2607803251633079</v>
       </c>
       <c r="E97" t="n">
-        <v>1.521491856334362</v>
+        <v>1.523739555639579</v>
       </c>
       <c r="F97" t="n">
-        <v>0.08913602996985752</v>
+        <v>0.08735109228630254</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1395673743360111</v>
+        <v>-0.1401513354300137</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2741144995546113</v>
       </c>
       <c r="E98" t="n">
-        <v>1.382542170363301</v>
+        <v>1.383116687342576</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1393047414230743</v>
+        <v>0.1379778433038179</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1484180838550849</v>
+        <v>-0.1490901900198803</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2809614606357399</v>
       </c>
       <c r="E99" t="n">
-        <v>1.254996252926064</v>
+        <v>1.255614842440735</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1466113381841521</v>
+        <v>0.1442204031388964</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1622049173385576</v>
+        <v>-0.1625858299659124</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.276937214784524</v>
       </c>
       <c r="E100" t="n">
-        <v>1.125023198003781</v>
+        <v>1.125216802355701</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1607869543905861</v>
+        <v>0.1574610519872778</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1693383719962923</v>
+        <v>-0.1697114145280406</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.264044027805188</v>
       </c>
       <c r="E101" t="n">
-        <v>1.017560190535219</v>
+        <v>1.01874700095268</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1740858419464557</v>
+        <v>0.1711739065720494</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.193458641011104</v>
+        <v>-0.1939229766518878</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2394392250827495</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8996299559100077</v>
+        <v>0.9003461346101995</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1642592405721754</v>
+        <v>0.1597874522485602</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1912408480691914</v>
+        <v>-0.1905435575984552</v>
       </c>
     </row>
   </sheetData>
